--- a/misc/er.xlsx
+++ b/misc/er.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680C250A-30FC-4874-9371-7A07A0816392}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1977606-7B17-4C92-9CA5-CFFAC4F0AE1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -17,6 +18,54 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>アンケート表示タイミング</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務システムなので、表示すると邪魔になるのでは？</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジャマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オペレーションログから表示タイミングを決める</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある操作をN回したら、表示など</t>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3061,7 +3110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
@@ -3072,4 +3121,39 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C908099-A8E4-4B38-B63A-7CD1D1F0D4C1}">
+  <dimension ref="B2:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/misc/er.xlsx
+++ b/misc/er.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1977606-7B17-4C92-9CA5-CFFAC4F0AE1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF06DDE-9A05-4247-8E04-F4A0CC04ACD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3110,7 +3110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
@@ -3127,7 +3127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C908099-A8E4-4B38-B63A-7CD1D1F0D4C1}">
   <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
